--- a/src/main/java/com/testdata/equarzFile.xlsx
+++ b/src/main/java/com/testdata/equarzFile.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{940E6726-3041-4241-B79B-C94276B46A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{01894DC2-7C28-4691-9D58-520313847911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18590" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="signup" sheetId="1" r:id="rId1"/>
     <sheet name="address" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:G17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -98,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,17 +466,17 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.1796875" customWidth="1"/>
+    <col min="2" max="2" width="20.26953125" customWidth="1"/>
+    <col min="3" max="3" width="27.26953125" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -533,15 +532,15 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -561,7 +560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
